--- a/data/ar_reutilizadas.xlsx
+++ b/data/ar_reutilizadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Agua\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\matrizagua\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0AFC3A-384C-465F-BFAB-15E22F1EB9C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB1E9B6-EE05-4176-8492-5F18436334E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE37B737-4692-4133-B4DE-383B2A7C516C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE37B737-4692-4133-B4DE-383B2A7C516C}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="6">
   <si>
     <t>Ano</t>
   </si>
@@ -55,6 +57,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="171" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="172" formatCode="#,##0.000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,9 +96,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -112,7 +120,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -410,19 +418,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C094BF8C-7E84-4C15-AD2D-FEE22ED5903E}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C22"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2003</v>
       </c>
@@ -444,7 +452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>+A2</f>
         <v>2003</v>
@@ -456,7 +464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>+A2</f>
         <v>2003</v>
@@ -468,7 +476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -479,7 +487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>+A5</f>
         <v>2004</v>
@@ -491,7 +499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>+A5</f>
         <v>2004</v>
@@ -503,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -514,7 +522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>+A8</f>
         <v>2005</v>
@@ -526,7 +534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>+A8</f>
         <v>2005</v>
@@ -538,7 +546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2006</v>
       </c>
@@ -549,7 +557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>+A11</f>
         <v>2006</v>
@@ -561,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>+A11</f>
         <v>2006</v>
@@ -573,7 +581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2007</v>
       </c>
@@ -584,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>+A14</f>
         <v>2007</v>
@@ -596,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>+A14</f>
         <v>2007</v>
@@ -608,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2008</v>
       </c>
@@ -619,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>+A17</f>
         <v>2008</v>
@@ -631,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>+A17</f>
         <v>2008</v>
@@ -643,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2009</v>
       </c>
@@ -654,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>+A20</f>
         <v>2009</v>
@@ -666,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>+A20</f>
         <v>2009</v>
@@ -678,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2010</v>
       </c>
@@ -689,7 +697,7 @@
         <v>1.3379730000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -700,7 +708,7 @@
         <v>1.3299970000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2010</v>
       </c>
@@ -711,7 +719,7 @@
         <v>7.9760000000000005E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -722,7 +730,7 @@
         <v>1.2487790000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2011</v>
       </c>
@@ -733,7 +741,7 @@
         <v>1.235754</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2011</v>
       </c>
@@ -744,7 +752,7 @@
         <v>1.3025E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2012</v>
       </c>
@@ -755,7 +763,7 @@
         <v>1.301518</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2012</v>
       </c>
@@ -766,7 +774,7 @@
         <v>1.287391</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2012</v>
       </c>
@@ -777,7 +785,7 @@
         <v>1.4127000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2013</v>
       </c>
@@ -788,7 +796,7 @@
         <v>1.423762</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2013</v>
       </c>
@@ -799,7 +807,7 @@
         <v>1.3990290000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2013</v>
       </c>
@@ -810,7 +818,7 @@
         <v>2.4733000000000002E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2014</v>
       </c>
@@ -821,7 +829,7 @@
         <v>1.5489790000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2014</v>
       </c>
@@ -832,7 +840,7 @@
         <v>1.5253410000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2014</v>
       </c>
@@ -843,7 +851,7 @@
         <v>2.3637999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2015</v>
       </c>
@@ -854,7 +862,7 @@
         <v>1.5841400000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2015</v>
       </c>
@@ -865,7 +873,7 @@
         <v>1.5512220000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -876,7 +884,7 @@
         <v>3.2918000000000003E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2016</v>
       </c>
@@ -887,7 +895,7 @@
         <v>1.5319100000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2016</v>
       </c>
@@ -898,7 +906,7 @@
         <v>1.5080359999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2016</v>
       </c>
@@ -909,7 +917,7 @@
         <v>2.3873999999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2017</v>
       </c>
@@ -920,7 +928,7 @@
         <v>1.574411</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2017</v>
       </c>
@@ -931,7 +939,7 @@
         <v>1.5553760000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2017</v>
       </c>
@@ -942,7 +950,7 @@
         <v>1.9035E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -953,7 +961,7 @@
         <v>1.732291</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -964,7 +972,7 @@
         <v>1.7167570000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -975,7 +983,40 @@
         <v>1.5533999999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2019</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1.372209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2019</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1.3545769999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2019</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1.7631999999999998E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
